--- a/SRM.xlsx
+++ b/SRM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucnmuni-my.sharepoint.com/personal/380348_muni_cz/Documents/Programovanie/laicpmsApp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikadilli/code/Ilaps-v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D4F4908-74EF-45C2-A9CE-224A1EE36175}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6933269-9F76-0E48-9DBE-01CDAAC8030D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="975" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="3300" yWindow="980" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>H2O</t>
   </si>
@@ -257,12 +257,15 @@
   </si>
   <si>
     <t>NIST610</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -762,48 +765,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % – Zvýraznění 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % – Zvýraznění 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % – Zvýraznění 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % – Zvýraznění 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % – Zvýraznění 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % – Zvýraznění 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % – Zvýraznění 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % – Zvýraznění 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % – Zvýraznění 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % – Zvýraznění 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % – Zvýraznění 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % – Zvýraznění 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % – Zvýraznění 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % – Zvýraznění 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % – Zvýraznění 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % – Zvýraznění 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % – Zvýraznění 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % – Zvýraznění 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Celkem" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Kontrolní buňka" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Nadpis 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Nadpis 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Nadpis 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Nadpis 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Název" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Neutrální" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
-    <cellStyle name="Poznámka" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Propojená buňka" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Správně" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Špatně" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Text upozornění" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Vstup" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Výpočet" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Výstup" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Vysvětlující text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Zvýraznění 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Zvýraznění 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Zvýraznění 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Zvýraznění 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Zvýraznění 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Zvýraznění 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -819,7 +822,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1114,16 +1117,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BY4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BZ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1131,229 +1134,232 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>67</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>68</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>69</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>70</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>71</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>72</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>73</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>74</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -1363,448 +1369,448 @@
       <c r="C2">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>101635</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>13.7</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>10797</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2.04</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>337024</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>72.099999999999994</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>85048</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>11.9</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1.69</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.753</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1.49</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>6.2</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>33.799999999999997</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>11.4</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>291</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>102</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>30</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>0.74</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>3.61</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>1.01</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>1.19</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>1.42</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>18.8</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>0.79</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>1.37</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>2.79</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>1.31</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>0.94199999999999995</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>0.74</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>0.4</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>0.85499999999999998</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>45.8</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>0.79</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>0.84799999999999998</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>0.82399999999999995</v>
       </c>
-      <c r="AO2">
+      <c r="AP2">
         <v>0.8</v>
       </c>
-      <c r="AP2">
+      <c r="AQ2">
         <v>1.54</v>
       </c>
-      <c r="AQ2">
+      <c r="AR2">
         <v>2.0499999999999998</v>
       </c>
-      <c r="AR2">
+      <c r="AS2">
         <v>0.42</v>
       </c>
-      <c r="AS2">
+      <c r="AT2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AT2">
+      <c r="AU2">
         <v>0.79</v>
       </c>
-      <c r="AU2">
+      <c r="AV2">
         <v>1.68</v>
       </c>
-      <c r="AV2">
+      <c r="AW2">
         <v>0.79</v>
       </c>
-      <c r="AX2">
+      <c r="AY2">
         <v>0.66400000000000003</v>
       </c>
-      <c r="AY2">
+      <c r="AZ2">
         <v>3.2</v>
       </c>
-      <c r="AZ2">
+      <c r="BA2">
         <v>0.72</v>
       </c>
-      <c r="BA2">
+      <c r="BB2">
         <v>0.81299999999999994</v>
       </c>
-      <c r="BB2">
+      <c r="BC2">
         <v>0.76800000000000002</v>
       </c>
-      <c r="BC2">
+      <c r="BD2">
         <v>0.752</v>
       </c>
-      <c r="BD2">
+      <c r="BE2">
         <v>0.754</v>
       </c>
-      <c r="BE2">
+      <c r="BF2">
         <v>0.77</v>
       </c>
-      <c r="BF2">
+      <c r="BG2">
         <v>0.76300000000000001</v>
       </c>
-      <c r="BG2">
+      <c r="BH2">
         <v>0.73899999999999999</v>
       </c>
-      <c r="BH2">
+      <c r="BI2">
         <v>0.746</v>
       </c>
-      <c r="BI2">
+      <c r="BJ2">
         <v>0.749</v>
       </c>
-      <c r="BJ2">
+      <c r="BK2">
         <v>0.74</v>
       </c>
-      <c r="BK2">
+      <c r="BL2">
         <v>0.73199999999999998</v>
       </c>
-      <c r="BL2">
+      <c r="BM2">
         <v>0.77700000000000002</v>
       </c>
-      <c r="BM2">
+      <c r="BN2">
         <v>0.73199999999999998</v>
       </c>
-      <c r="BN2">
+      <c r="BO2">
         <v>0.71099999999999997</v>
       </c>
-      <c r="BO2">
+      <c r="BP2">
         <v>0.80800000000000005</v>
       </c>
-      <c r="BP2">
+      <c r="BQ2">
         <v>0.80600000000000005</v>
       </c>
-      <c r="BQ2">
+      <c r="BR2">
         <v>0.17</v>
       </c>
-      <c r="BR2">
+      <c r="BS2">
         <v>2E-3</v>
       </c>
-      <c r="BS2">
+      <c r="BT2">
         <v>2.36</v>
       </c>
-      <c r="BT2">
+      <c r="BU2">
         <v>0.48</v>
       </c>
-      <c r="BU2">
+      <c r="BV2">
         <v>0.27300000000000002</v>
       </c>
-      <c r="BV2">
+      <c r="BW2">
         <v>2.3199999999999998</v>
       </c>
-      <c r="BW2">
+      <c r="BX2">
         <v>0.58099999999999996</v>
       </c>
-      <c r="BX2">
+      <c r="BY2">
         <v>0.748</v>
       </c>
-      <c r="BY2">
+      <c r="BZ2">
         <v>0.82299999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>77</v>
       </c>
       <c r="B3">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>101635</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>13.7</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>10744</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2.0299999999999998</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>337024</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>72.099999999999994</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>85048</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>11.9</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>40.200000000000003</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>37.5</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>34.299999999999997</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>80</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>68</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>46.6</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>377</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>142</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>62.3</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>39.9</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>44</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>38.799999999999997</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>36.4</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>38.700000000000003</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>51</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>35.5</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>38.799999999999997</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>37.799999999999997</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>39.1</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>36.9</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>36.1</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>35.700000000000003</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>16.3</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>31.4</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>78.400000000000006</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>38.299999999999997</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>37.9</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>38.9</v>
       </c>
-      <c r="AO3">
+      <c r="AP3">
         <v>37.4</v>
       </c>
-      <c r="AP3">
+      <c r="AQ3">
         <v>0.91</v>
       </c>
-      <c r="AQ3">
+      <c r="AR3">
         <v>1.05</v>
       </c>
-      <c r="AR3">
+      <c r="AS3">
         <v>22</v>
       </c>
-      <c r="AS3">
+      <c r="AT3">
         <v>28.1</v>
       </c>
-      <c r="AT3">
+      <c r="AU3">
         <v>38.9</v>
       </c>
-      <c r="AU3">
+      <c r="AV3">
         <v>38.6</v>
       </c>
-      <c r="AV3">
+      <c r="AW3">
         <v>34.700000000000003</v>
       </c>
-      <c r="AX3">
+      <c r="AY3">
         <v>42.7</v>
       </c>
-      <c r="AY3">
+      <c r="AZ3">
         <v>39.299999999999997</v>
       </c>
-      <c r="AZ3">
+      <c r="BA3">
         <v>36</v>
       </c>
-      <c r="BA3">
+      <c r="BB3">
         <v>38.4</v>
       </c>
-      <c r="BB3">
+      <c r="BC3">
         <v>37.9</v>
       </c>
-      <c r="BC3">
+      <c r="BD3">
         <v>35.5</v>
       </c>
-      <c r="BD3">
+      <c r="BE3">
         <v>37.700000000000003</v>
       </c>
-      <c r="BE3">
+      <c r="BF3">
         <v>35.6</v>
       </c>
-      <c r="BF3">
+      <c r="BG3">
         <v>37.299999999999997</v>
       </c>
-      <c r="BG3">
+      <c r="BH3">
         <v>37.6</v>
       </c>
-      <c r="BH3">
+      <c r="BI3">
         <v>35.5</v>
       </c>
-      <c r="BI3">
+      <c r="BJ3">
         <v>38.299999999999997</v>
       </c>
-      <c r="BJ3">
+      <c r="BK3">
         <v>38</v>
       </c>
-      <c r="BK3">
+      <c r="BL3">
         <v>36.799999999999997</v>
       </c>
-      <c r="BL3">
+      <c r="BM3">
         <v>39.200000000000003</v>
       </c>
-      <c r="BM3">
+      <c r="BN3">
         <v>37</v>
       </c>
-      <c r="BN3">
+      <c r="BO3">
         <v>36.700000000000003</v>
       </c>
-      <c r="BO3">
+      <c r="BP3">
         <v>37.6</v>
       </c>
-      <c r="BP3">
+      <c r="BQ3">
         <v>38</v>
       </c>
-      <c r="BQ3">
+      <c r="BR3">
         <v>6.63</v>
       </c>
-      <c r="BR3">
+      <c r="BS3">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="BS3">
+      <c r="BT3">
         <v>2.5099999999999998</v>
       </c>
-      <c r="BT3">
+      <c r="BU3">
         <v>4.7699999999999996</v>
       </c>
-      <c r="BU3">
+      <c r="BV3">
         <v>14.9</v>
       </c>
-      <c r="BV3">
+      <c r="BW3">
         <v>38.57</v>
       </c>
-      <c r="BW3">
+      <c r="BX3">
         <v>30.2</v>
       </c>
-      <c r="BX3">
+      <c r="BY3">
         <v>37.79</v>
       </c>
-      <c r="BY3">
+      <c r="BZ3">
         <v>37.380000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -1815,222 +1821,225 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>99409</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>13.4</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>10320</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1.95</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>325806</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>69.7</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>81475</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>11.4</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>468</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>476</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>350</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>304</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>432</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>413</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>575</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>274</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>464</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>455</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>452</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>450</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>408</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>444</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>458</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>410</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>458.7</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>441</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>460</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>433</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>447</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>325</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>138</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>93</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>425.7</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>515.5</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>462</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>448</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>465</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <v>417</v>
       </c>
-      <c r="AP4">
+      <c r="AQ4">
         <v>1.29</v>
       </c>
-      <c r="AQ4">
+      <c r="AR4">
         <v>1.21</v>
       </c>
-      <c r="AR4">
+      <c r="AS4">
         <v>251</v>
       </c>
-      <c r="AS4">
+      <c r="AT4">
         <v>270</v>
       </c>
-      <c r="AT4">
+      <c r="AU4">
         <v>434</v>
       </c>
-      <c r="AU4">
+      <c r="AV4">
         <v>430</v>
       </c>
-      <c r="AV4">
+      <c r="AW4">
         <v>396</v>
       </c>
-      <c r="AW4">
+      <c r="AX4">
         <v>302</v>
       </c>
-      <c r="AX4">
+      <c r="AY4">
         <v>366</v>
       </c>
-      <c r="AY4">
+      <c r="AZ4">
         <v>452</v>
       </c>
-      <c r="AZ4">
+      <c r="BA4">
         <v>440</v>
       </c>
-      <c r="BA4">
+      <c r="BB4">
         <v>453</v>
       </c>
-      <c r="BB4">
+      <c r="BC4">
         <v>448</v>
       </c>
-      <c r="BC4">
+      <c r="BD4">
         <v>430</v>
       </c>
-      <c r="BD4">
+      <c r="BE4">
         <v>453</v>
       </c>
-      <c r="BE4">
+      <c r="BF4">
         <v>447</v>
       </c>
-      <c r="BF4">
+      <c r="BG4">
         <v>449</v>
-      </c>
-      <c r="BG4">
-        <v>437</v>
       </c>
       <c r="BH4">
         <v>437</v>
       </c>
       <c r="BI4">
+        <v>437</v>
+      </c>
+      <c r="BJ4">
         <v>449</v>
       </c>
-      <c r="BJ4">
+      <c r="BK4">
         <v>455</v>
       </c>
-      <c r="BK4">
+      <c r="BL4">
         <v>435</v>
       </c>
-      <c r="BL4">
+      <c r="BM4">
         <v>450</v>
       </c>
-      <c r="BM4">
+      <c r="BN4">
         <v>439</v>
       </c>
-      <c r="BN4">
+      <c r="BO4">
         <v>435</v>
       </c>
-      <c r="BO4">
+      <c r="BP4">
         <v>446</v>
       </c>
-      <c r="BP4">
+      <c r="BQ4">
         <v>444</v>
       </c>
-      <c r="BQ4">
+      <c r="BR4">
         <v>49.9</v>
       </c>
-      <c r="BS4">
+      <c r="BT4">
         <v>3.12</v>
       </c>
-      <c r="BT4">
+      <c r="BU4">
         <v>23.6</v>
       </c>
-      <c r="BU4">
+      <c r="BV4">
         <v>59.6</v>
       </c>
-      <c r="BV4">
+      <c r="BW4">
         <v>426</v>
       </c>
-      <c r="BW4">
+      <c r="BX4">
         <v>384</v>
       </c>
-      <c r="BX4">
+      <c r="BY4">
         <v>457.2</v>
       </c>
-      <c r="BY4">
+      <c r="BZ4">
         <v>461.5</v>
       </c>
     </row>
